--- a/data/gfdx/raw/Number of Food Vehicles with Standards_20240729.xlsx
+++ b/data/gfdx/raw/Number of Food Vehicles with Standards_20240729.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mygain-my.sharepoint.com/personal/vfriesen_gainhealth_org1/Documents/Documents/Fortification/Dissemination/Publications/Manuscript - Global LSFF impact on nutrient adequacy/Raw data/GFDx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/data/gfdx/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:9_{9CB3D10E-AAAC-5C49-B181-72918A09E1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5633858E-AA8B-442B-9E68-C44BEB9A3D66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F85FDE-200A-2F48-90B9-256B47DE936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28905" yWindow="315" windowWidth="24810" windowHeight="20565" xr2:uid="{2F3AC77E-E938-CC42-A716-7C08DECEBDAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{2F3AC77E-E938-CC42-A716-7C08DECEBDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="gfdx355-Map_ Number of Food Veh" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gfdx355-Map_ Number of Food Veh'!$A$1:$J$986</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4465,28 +4468,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0633E8-6193-C347-BB4A-769926B7E16B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="I989" sqref="I989"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4806,7 +4810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -4934,7 +4938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -4966,7 +4970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -5030,7 +5034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6086,7 +6090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -6374,7 +6378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -6438,7 +6442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -6694,7 +6698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -6726,7 +6730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -7107,7 +7111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -7139,7 +7143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -7171,7 +7175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -7203,7 +7207,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -7491,7 +7495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -7619,7 +7623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>182</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -7939,7 +7943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -8099,7 +8103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -8131,7 +8135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -8419,7 +8423,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>211</v>
       </c>
@@ -8483,7 +8487,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>211</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>211</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -8707,7 +8711,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>230</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>230</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>230</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>230</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>230</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>230</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>230</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>230</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>230</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>230</v>
       </c>
@@ -9155,7 +9159,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>230</v>
       </c>
@@ -9187,7 +9191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>247</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>250</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>250</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>250</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>250</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>250</v>
       </c>
@@ -9364,7 +9368,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>250</v>
       </c>
@@ -9393,7 +9397,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>250</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>250</v>
       </c>
@@ -9451,7 +9455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>250</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>250</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>250</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>250</v>
       </c>
@@ -9596,7 +9600,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>250</v>
       </c>
@@ -9625,7 +9629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>250</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>255</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>255</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>255</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>255</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>255</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>255</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>255</v>
       </c>
@@ -9910,7 +9914,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>263</v>
       </c>
@@ -9942,7 +9946,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>263</v>
       </c>
@@ -9974,7 +9978,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>263</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>263</v>
       </c>
@@ -10038,7 +10042,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>263</v>
       </c>
@@ -10070,7 +10074,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>263</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>263</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>263</v>
       </c>
@@ -10166,7 +10170,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>263</v>
       </c>
@@ -10198,7 +10202,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>263</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>263</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>280</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>280</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>280</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>280</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>280</v>
       </c>
@@ -10454,7 +10458,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>280</v>
       </c>
@@ -10486,7 +10490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>280</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>280</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>290</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>290</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>295</v>
       </c>
@@ -10646,7 +10650,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>295</v>
       </c>
@@ -10678,7 +10682,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>295</v>
       </c>
@@ -10710,7 +10714,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>295</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>295</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>295</v>
       </c>
@@ -10806,7 +10810,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>295</v>
       </c>
@@ -10838,7 +10842,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>295</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>295</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>295</v>
       </c>
@@ -10934,7 +10938,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>295</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>295</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>295</v>
       </c>
@@ -11030,7 +11034,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>295</v>
       </c>
@@ -11062,7 +11066,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>295</v>
       </c>
@@ -11094,7 +11098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>295</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>295</v>
       </c>
@@ -11158,7 +11162,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>295</v>
       </c>
@@ -11190,7 +11194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>295</v>
       </c>
@@ -11222,7 +11226,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>317</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>317</v>
       </c>
@@ -11286,7 +11290,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>317</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>317</v>
       </c>
@@ -11350,7 +11354,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>325</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>328</v>
       </c>
@@ -11414,7 +11418,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>328</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>328</v>
       </c>
@@ -11478,7 +11482,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>328</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>328</v>
       </c>
@@ -11542,7 +11546,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>328</v>
       </c>
@@ -11574,7 +11578,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>328</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>336</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>336</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>340</v>
       </c>
@@ -11702,7 +11706,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>343</v>
       </c>
@@ -11734,7 +11738,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>343</v>
       </c>
@@ -11766,7 +11770,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>347</v>
       </c>
@@ -11798,7 +11802,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>347</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -11862,7 +11866,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>347</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>347</v>
       </c>
@@ -11926,7 +11930,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>347</v>
       </c>
@@ -11958,7 +11962,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>356</v>
       </c>
@@ -11990,7 +11994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>356</v>
       </c>
@@ -12022,7 +12026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>356</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>356</v>
       </c>
@@ -12086,7 +12090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>356</v>
       </c>
@@ -12118,7 +12122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>357</v>
       </c>
@@ -12150,7 +12154,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>357</v>
       </c>
@@ -12182,7 +12186,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>357</v>
       </c>
@@ -12214,7 +12218,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>357</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>357</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>357</v>
       </c>
@@ -12342,7 +12346,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>357</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>357</v>
       </c>
@@ -12406,7 +12410,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>357</v>
       </c>
@@ -12438,7 +12442,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>357</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>357</v>
       </c>
@@ -12502,7 +12506,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>357</v>
       </c>
@@ -12534,7 +12538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>357</v>
       </c>
@@ -12566,7 +12570,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>374</v>
       </c>
@@ -12598,7 +12602,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>374</v>
       </c>
@@ -12630,7 +12634,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>374</v>
       </c>
@@ -12662,7 +12666,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>374</v>
       </c>
@@ -12694,7 +12698,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>374</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>374</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>374</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>383</v>
       </c>
@@ -12822,7 +12826,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>386</v>
       </c>
@@ -12854,7 +12858,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>386</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>386</v>
       </c>
@@ -12918,7 +12922,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>386</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>386</v>
       </c>
@@ -12982,7 +12986,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>386</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>386</v>
       </c>
@@ -13046,7 +13050,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>386</v>
       </c>
@@ -13078,7 +13082,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>386</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>386</v>
       </c>
@@ -13142,7 +13146,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>386</v>
       </c>
@@ -13174,7 +13178,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>395</v>
       </c>
@@ -13206,7 +13210,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>395</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>395</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>395</v>
       </c>
@@ -13302,7 +13306,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>395</v>
       </c>
@@ -13334,7 +13338,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>395</v>
       </c>
@@ -13366,7 +13370,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>395</v>
       </c>
@@ -13398,7 +13402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>395</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>395</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>407</v>
       </c>
@@ -13494,7 +13498,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>407</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>407</v>
       </c>
@@ -13558,7 +13562,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>407</v>
       </c>
@@ -13590,7 +13594,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>407</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>407</v>
       </c>
@@ -13654,7 +13658,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>407</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>407</v>
       </c>
@@ -13718,7 +13722,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>407</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>407</v>
       </c>
@@ -13782,7 +13786,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>407</v>
       </c>
@@ -13814,7 +13818,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>422</v>
       </c>
@@ -13846,7 +13850,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>422</v>
       </c>
@@ -13878,7 +13882,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>422</v>
       </c>
@@ -13910,7 +13914,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>422</v>
       </c>
@@ -13942,7 +13946,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>422</v>
       </c>
@@ -13974,7 +13978,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>422</v>
       </c>
@@ -14006,7 +14010,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>422</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>422</v>
       </c>
@@ -14070,7 +14074,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>430</v>
       </c>
@@ -14102,7 +14106,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>430</v>
       </c>
@@ -14134,7 +14138,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>434</v>
       </c>
@@ -14166,7 +14170,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>437</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>437</v>
       </c>
@@ -14224,7 +14228,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>437</v>
       </c>
@@ -14253,7 +14257,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>437</v>
       </c>
@@ -14282,7 +14286,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>437</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>442</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>445</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>448</v>
       </c>
@@ -14410,7 +14414,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>448</v>
       </c>
@@ -14442,7 +14446,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>448</v>
       </c>
@@ -14474,7 +14478,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>448</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>448</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>448</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>448</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -14634,7 +14638,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>448</v>
       </c>
@@ -14666,7 +14670,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>448</v>
       </c>
@@ -14698,7 +14702,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>462</v>
       </c>
@@ -14730,7 +14734,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>462</v>
       </c>
@@ -14762,7 +14766,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>466</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>466</v>
       </c>
@@ -14826,7 +14830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>466</v>
       </c>
@@ -14858,7 +14862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>466</v>
       </c>
@@ -14890,7 +14894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>466</v>
       </c>
@@ -14922,7 +14926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>467</v>
       </c>
@@ -14954,7 +14958,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>467</v>
       </c>
@@ -14986,7 +14990,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>467</v>
       </c>
@@ -15018,7 +15022,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>467</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>467</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>467</v>
       </c>
@@ -15114,7 +15118,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>467</v>
       </c>
@@ -15146,7 +15150,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>467</v>
       </c>
@@ -15178,7 +15182,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>467</v>
       </c>
@@ -15210,7 +15214,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>467</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>467</v>
       </c>
@@ -15274,7 +15278,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>467</v>
       </c>
@@ -15306,7 +15310,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>467</v>
       </c>
@@ -15338,7 +15342,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>467</v>
       </c>
@@ -15370,7 +15374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>485</v>
       </c>
@@ -15402,7 +15406,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>485</v>
       </c>
@@ -15434,7 +15438,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>485</v>
       </c>
@@ -15466,7 +15470,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>485</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>485</v>
       </c>
@@ -15530,7 +15534,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>485</v>
       </c>
@@ -15562,7 +15566,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>494</v>
       </c>
@@ -15594,7 +15598,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>497</v>
       </c>
@@ -15626,7 +15630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>497</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>497</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>497</v>
       </c>
@@ -15722,7 +15726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>497</v>
       </c>
@@ -15754,7 +15758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>498</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>498</v>
       </c>
@@ -15818,7 +15822,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>498</v>
       </c>
@@ -15850,7 +15854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>498</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>498</v>
       </c>
@@ -15914,7 +15918,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>498</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>505</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>508</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>508</v>
       </c>
@@ -16042,7 +16046,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>508</v>
       </c>
@@ -16074,7 +16078,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>508</v>
       </c>
@@ -16106,7 +16110,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>508</v>
       </c>
@@ -16138,7 +16142,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>508</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>508</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>508</v>
       </c>
@@ -16234,7 +16238,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>508</v>
       </c>
@@ -16266,7 +16270,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>508</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>508</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>508</v>
       </c>
@@ -16362,7 +16366,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>508</v>
       </c>
@@ -16394,7 +16398,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>508</v>
       </c>
@@ -16426,7 +16430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>508</v>
       </c>
@@ -16458,7 +16462,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>508</v>
       </c>
@@ -16490,7 +16494,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>508</v>
       </c>
@@ -16522,7 +16526,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>508</v>
       </c>
@@ -16554,7 +16558,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>508</v>
       </c>
@@ -16586,7 +16590,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>508</v>
       </c>
@@ -16618,7 +16622,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>508</v>
       </c>
@@ -16650,7 +16654,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>508</v>
       </c>
@@ -16682,7 +16686,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>508</v>
       </c>
@@ -16714,7 +16718,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>508</v>
       </c>
@@ -16746,7 +16750,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>533</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>533</v>
       </c>
@@ -16810,7 +16814,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>533</v>
       </c>
@@ -16842,7 +16846,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>533</v>
       </c>
@@ -16874,7 +16878,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>533</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>533</v>
       </c>
@@ -16935,7 +16939,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>533</v>
       </c>
@@ -16964,7 +16968,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>533</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>533</v>
       </c>
@@ -17025,7 +17029,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>533</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>543</v>
       </c>
@@ -17089,7 +17093,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>546</v>
       </c>
@@ -17121,7 +17125,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>546</v>
       </c>
@@ -17153,7 +17157,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>550</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>553</v>
       </c>
@@ -17217,7 +17221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>553</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>553</v>
       </c>
@@ -17281,7 +17285,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>553</v>
       </c>
@@ -17313,7 +17317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>553</v>
       </c>
@@ -17345,7 +17349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>554</v>
       </c>
@@ -17377,7 +17381,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>554</v>
       </c>
@@ -17409,7 +17413,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>554</v>
       </c>
@@ -17441,7 +17445,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>554</v>
       </c>
@@ -17473,7 +17477,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>554</v>
       </c>
@@ -17505,7 +17509,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>554</v>
       </c>
@@ -17537,7 +17541,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>554</v>
       </c>
@@ -17569,7 +17573,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>554</v>
       </c>
@@ -17601,7 +17605,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>554</v>
       </c>
@@ -17633,7 +17637,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>554</v>
       </c>
@@ -17665,7 +17669,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>554</v>
       </c>
@@ -17697,7 +17701,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>554</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>568</v>
       </c>
@@ -17761,7 +17765,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>568</v>
       </c>
@@ -17793,7 +17797,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>568</v>
       </c>
@@ -17825,7 +17829,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>568</v>
       </c>
@@ -17857,7 +17861,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>568</v>
       </c>
@@ -17889,7 +17893,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>568</v>
       </c>
@@ -17921,7 +17925,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>568</v>
       </c>
@@ -17953,7 +17957,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>568</v>
       </c>
@@ -17985,7 +17989,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>568</v>
       </c>
@@ -18017,7 +18021,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>580</v>
       </c>
@@ -18049,7 +18053,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>580</v>
       </c>
@@ -18081,7 +18085,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>580</v>
       </c>
@@ -18113,7 +18117,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>580</v>
       </c>
@@ -18145,7 +18149,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>580</v>
       </c>
@@ -18177,7 +18181,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>580</v>
       </c>
@@ -18209,7 +18213,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>580</v>
       </c>
@@ -18241,7 +18245,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>580</v>
       </c>
@@ -18273,7 +18277,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>580</v>
       </c>
@@ -18305,7 +18309,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>580</v>
       </c>
@@ -18337,7 +18341,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>580</v>
       </c>
@@ -18369,7 +18373,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>580</v>
       </c>
@@ -18401,7 +18405,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>580</v>
       </c>
@@ -18433,7 +18437,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>580</v>
       </c>
@@ -18465,7 +18469,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>580</v>
       </c>
@@ -18497,7 +18501,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>580</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>580</v>
       </c>
@@ -18561,7 +18565,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>580</v>
       </c>
@@ -18593,7 +18597,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>580</v>
       </c>
@@ -18625,7 +18629,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>580</v>
       </c>
@@ -18657,7 +18661,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>600</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>600</v>
       </c>
@@ -18721,7 +18725,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>600</v>
       </c>
@@ -18753,7 +18757,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>600</v>
       </c>
@@ -18785,7 +18789,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>600</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>600</v>
       </c>
@@ -18849,7 +18853,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>600</v>
       </c>
@@ -18881,7 +18885,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>600</v>
       </c>
@@ -18913,7 +18917,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>605</v>
       </c>
@@ -18945,7 +18949,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>605</v>
       </c>
@@ -18977,7 +18981,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>605</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>611</v>
       </c>
@@ -19041,7 +19045,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>611</v>
       </c>
@@ -19073,7 +19077,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>611</v>
       </c>
@@ -19105,7 +19109,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>611</v>
       </c>
@@ -19137,7 +19141,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>611</v>
       </c>
@@ -19169,7 +19173,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>611</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>611</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>611</v>
       </c>
@@ -19265,7 +19269,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>621</v>
       </c>
@@ -19297,7 +19301,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>623</v>
       </c>
@@ -19329,7 +19333,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>626</v>
       </c>
@@ -19361,7 +19365,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>626</v>
       </c>
@@ -19393,7 +19397,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>630</v>
       </c>
@@ -19425,7 +19429,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>633</v>
       </c>
@@ -19457,7 +19461,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>633</v>
       </c>
@@ -19489,7 +19493,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>637</v>
       </c>
@@ -19521,7 +19525,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>637</v>
       </c>
@@ -19553,7 +19557,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>637</v>
       </c>
@@ -19585,7 +19589,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>637</v>
       </c>
@@ -19617,7 +19621,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>637</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>637</v>
       </c>
@@ -19681,7 +19685,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>637</v>
       </c>
@@ -19713,7 +19717,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>637</v>
       </c>
@@ -19745,7 +19749,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>637</v>
       </c>
@@ -19777,7 +19781,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>650</v>
       </c>
@@ -19809,7 +19813,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>653</v>
       </c>
@@ -19841,7 +19845,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>656</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>656</v>
       </c>
@@ -19905,7 +19909,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>660</v>
       </c>
@@ -19937,7 +19941,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>660</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>660</v>
       </c>
@@ -20001,7 +20005,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>660</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>660</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>660</v>
       </c>
@@ -20097,7 +20101,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>660</v>
       </c>
@@ -20129,7 +20133,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>660</v>
       </c>
@@ -20161,7 +20165,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>660</v>
       </c>
@@ -20193,7 +20197,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>660</v>
       </c>
@@ -20225,7 +20229,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>660</v>
       </c>
@@ -20257,7 +20261,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>660</v>
       </c>
@@ -20289,7 +20293,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>660</v>
       </c>
@@ -20321,7 +20325,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>660</v>
       </c>
@@ -20353,7 +20357,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>660</v>
       </c>
@@ -20385,7 +20389,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>660</v>
       </c>
@@ -20417,7 +20421,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>660</v>
       </c>
@@ -20449,7 +20453,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>660</v>
       </c>
@@ -20481,7 +20485,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>683</v>
       </c>
@@ -20513,7 +20517,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>683</v>
       </c>
@@ -20545,7 +20549,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>683</v>
       </c>
@@ -20577,7 +20581,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>683</v>
       </c>
@@ -20609,7 +20613,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>690</v>
       </c>
@@ -20641,7 +20645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>690</v>
       </c>
@@ -20673,7 +20677,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>690</v>
       </c>
@@ -20702,7 +20706,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>690</v>
       </c>
@@ -20734,7 +20738,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>695</v>
       </c>
@@ -20766,7 +20770,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>698</v>
       </c>
@@ -20798,7 +20802,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>698</v>
       </c>
@@ -20830,7 +20834,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>698</v>
       </c>
@@ -20862,7 +20866,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>698</v>
       </c>
@@ -20894,7 +20898,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>698</v>
       </c>
@@ -20926,7 +20930,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>698</v>
       </c>
@@ -20958,7 +20962,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>698</v>
       </c>
@@ -20990,7 +20994,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>698</v>
       </c>
@@ -21022,7 +21026,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>698</v>
       </c>
@@ -21054,7 +21058,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>698</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>698</v>
       </c>
@@ -21118,7 +21122,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>698</v>
       </c>
@@ -21150,7 +21154,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>698</v>
       </c>
@@ -21182,7 +21186,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>706</v>
       </c>
@@ -21214,7 +21218,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>706</v>
       </c>
@@ -21246,7 +21250,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>706</v>
       </c>
@@ -21278,7 +21282,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>712</v>
       </c>
@@ -21310,7 +21314,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>712</v>
       </c>
@@ -21342,7 +21346,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>712</v>
       </c>
@@ -21374,7 +21378,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>712</v>
       </c>
@@ -21406,7 +21410,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>712</v>
       </c>
@@ -21438,7 +21442,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>712</v>
       </c>
@@ -21470,7 +21474,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>712</v>
       </c>
@@ -21502,7 +21506,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>712</v>
       </c>
@@ -21534,7 +21538,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>719</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>719</v>
       </c>
@@ -21598,7 +21602,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>719</v>
       </c>
@@ -21630,7 +21634,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>719</v>
       </c>
@@ -21662,7 +21666,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>719</v>
       </c>
@@ -21694,7 +21698,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>728</v>
       </c>
@@ -21726,7 +21730,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>728</v>
       </c>
@@ -21758,7 +21762,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>728</v>
       </c>
@@ -21790,7 +21794,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>728</v>
       </c>
@@ -21822,7 +21826,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>728</v>
       </c>
@@ -21854,7 +21858,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>728</v>
       </c>
@@ -21886,7 +21890,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>728</v>
       </c>
@@ -21918,7 +21922,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>728</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>728</v>
       </c>
@@ -21982,7 +21986,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>728</v>
       </c>
@@ -22014,7 +22018,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>728</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>728</v>
       </c>
@@ -22078,7 +22082,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>728</v>
       </c>
@@ -22110,7 +22114,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>728</v>
       </c>
@@ -22142,7 +22146,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>728</v>
       </c>
@@ -22174,7 +22178,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>728</v>
       </c>
@@ -22206,7 +22210,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>728</v>
       </c>
@@ -22238,7 +22242,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>728</v>
       </c>
@@ -22270,7 +22274,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>728</v>
       </c>
@@ -22302,7 +22306,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>728</v>
       </c>
@@ -22334,7 +22338,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>728</v>
       </c>
@@ -22366,7 +22370,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>753</v>
       </c>
@@ -22398,7 +22402,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>753</v>
       </c>
@@ -22430,7 +22434,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>753</v>
       </c>
@@ -22462,7 +22466,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>753</v>
       </c>
@@ -22494,7 +22498,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>753</v>
       </c>
@@ -22526,7 +22530,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>753</v>
       </c>
@@ -22558,7 +22562,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>753</v>
       </c>
@@ -22590,7 +22594,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>753</v>
       </c>
@@ -22622,7 +22626,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>753</v>
       </c>
@@ -22654,7 +22658,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>765</v>
       </c>
@@ -22686,7 +22690,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>765</v>
       </c>
@@ -22718,7 +22722,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>769</v>
       </c>
@@ -22750,7 +22754,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>769</v>
       </c>
@@ -22782,7 +22786,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>769</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>769</v>
       </c>
@@ -22846,7 +22850,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>774</v>
       </c>
@@ -22878,7 +22882,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>774</v>
       </c>
@@ -22910,7 +22914,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>774</v>
       </c>
@@ -22942,7 +22946,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>780</v>
       </c>
@@ -22974,7 +22978,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>780</v>
       </c>
@@ -23006,7 +23010,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>780</v>
       </c>
@@ -23038,7 +23042,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>786</v>
       </c>
@@ -23070,7 +23074,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>786</v>
       </c>
@@ -23102,7 +23106,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>786</v>
       </c>
@@ -23134,7 +23138,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>786</v>
       </c>
@@ -23166,7 +23170,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>786</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>786</v>
       </c>
@@ -23230,7 +23234,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>786</v>
       </c>
@@ -23262,7 +23266,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>786</v>
       </c>
@@ -23294,7 +23298,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>786</v>
       </c>
@@ -23326,7 +23330,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>786</v>
       </c>
@@ -23358,7 +23362,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>786</v>
       </c>
@@ -23390,7 +23394,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>786</v>
       </c>
@@ -23422,7 +23426,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>786</v>
       </c>
@@ -23454,7 +23458,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>786</v>
       </c>
@@ -23486,7 +23490,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>796</v>
       </c>
@@ -23518,7 +23522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>796</v>
       </c>
@@ -23550,7 +23554,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>796</v>
       </c>
@@ -23582,7 +23586,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>796</v>
       </c>
@@ -23614,7 +23618,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>801</v>
       </c>
@@ -23646,7 +23650,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>801</v>
       </c>
@@ -23678,7 +23682,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>801</v>
       </c>
@@ -23710,7 +23714,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>801</v>
       </c>
@@ -23742,7 +23746,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>801</v>
       </c>
@@ -23774,7 +23778,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>801</v>
       </c>
@@ -23806,7 +23810,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>801</v>
       </c>
@@ -23838,7 +23842,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>801</v>
       </c>
@@ -23870,7 +23874,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>801</v>
       </c>
@@ -23902,7 +23906,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>801</v>
       </c>
@@ -23934,7 +23938,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>801</v>
       </c>
@@ -23966,7 +23970,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>801</v>
       </c>
@@ -23998,7 +24002,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>801</v>
       </c>
@@ -24030,7 +24034,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>801</v>
       </c>
@@ -24062,7 +24066,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>801</v>
       </c>
@@ -24094,7 +24098,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>801</v>
       </c>
@@ -24126,7 +24130,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>801</v>
       </c>
@@ -24158,7 +24162,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>801</v>
       </c>
@@ -24190,7 +24194,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>801</v>
       </c>
@@ -24222,7 +24226,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>801</v>
       </c>
@@ -24254,7 +24258,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>812</v>
       </c>
@@ -24286,7 +24290,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>815</v>
       </c>
@@ -24318,7 +24322,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>815</v>
       </c>
@@ -24350,7 +24354,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>815</v>
       </c>
@@ -24382,7 +24386,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>815</v>
       </c>
@@ -24414,7 +24418,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>815</v>
       </c>
@@ -24446,7 +24450,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>815</v>
       </c>
@@ -24478,7 +24482,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>822</v>
       </c>
@@ -24510,7 +24514,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>822</v>
       </c>
@@ -24542,7 +24546,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>822</v>
       </c>
@@ -24574,7 +24578,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>828</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>828</v>
       </c>
@@ -24638,7 +24642,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>828</v>
       </c>
@@ -24670,7 +24674,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>828</v>
       </c>
@@ -24702,7 +24706,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>828</v>
       </c>
@@ -24734,7 +24738,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>828</v>
       </c>
@@ -24766,7 +24770,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>828</v>
       </c>
@@ -24798,7 +24802,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>828</v>
       </c>
@@ -24830,7 +24834,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>828</v>
       </c>
@@ -24862,7 +24866,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>828</v>
       </c>
@@ -24894,7 +24898,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>828</v>
       </c>
@@ -24926,7 +24930,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>842</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>842</v>
       </c>
@@ -24990,7 +24994,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>842</v>
       </c>
@@ -25022,7 +25026,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>842</v>
       </c>
@@ -25054,7 +25058,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>842</v>
       </c>
@@ -25086,7 +25090,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>842</v>
       </c>
@@ -25118,7 +25122,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>842</v>
       </c>
@@ -25150,7 +25154,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>842</v>
       </c>
@@ -25182,7 +25186,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>842</v>
       </c>
@@ -25214,7 +25218,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>842</v>
       </c>
@@ -25246,7 +25250,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>842</v>
       </c>
@@ -25278,7 +25282,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>842</v>
       </c>
@@ -25310,7 +25314,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>842</v>
       </c>
@@ -25342,7 +25346,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>849</v>
       </c>
@@ -25374,7 +25378,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>849</v>
       </c>
@@ -25406,7 +25410,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>849</v>
       </c>
@@ -25438,7 +25442,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>849</v>
       </c>
@@ -25470,7 +25474,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>856</v>
       </c>
@@ -25502,7 +25506,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>856</v>
       </c>
@@ -25534,7 +25538,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>856</v>
       </c>
@@ -25566,7 +25570,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>856</v>
       </c>
@@ -25598,7 +25602,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>856</v>
       </c>
@@ -25630,7 +25634,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>856</v>
       </c>
@@ -25662,7 +25666,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>865</v>
       </c>
@@ -25694,7 +25698,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>865</v>
       </c>
@@ -25726,7 +25730,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>865</v>
       </c>
@@ -25758,7 +25762,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>865</v>
       </c>
@@ -25790,7 +25794,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>865</v>
       </c>
@@ -25822,7 +25826,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>865</v>
       </c>
@@ -25854,7 +25858,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>865</v>
       </c>
@@ -25886,7 +25890,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>865</v>
       </c>
@@ -25918,7 +25922,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>865</v>
       </c>
@@ -25950,7 +25954,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>865</v>
       </c>
@@ -25982,7 +25986,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>865</v>
       </c>
@@ -26014,7 +26018,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>865</v>
       </c>
@@ -26046,7 +26050,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>865</v>
       </c>
@@ -26078,7 +26082,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>865</v>
       </c>
@@ -26110,7 +26114,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>865</v>
       </c>
@@ -26142,7 +26146,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>865</v>
       </c>
@@ -26174,7 +26178,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>884</v>
       </c>
@@ -26206,7 +26210,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>884</v>
       </c>
@@ -26238,7 +26242,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>884</v>
       </c>
@@ -26270,7 +26274,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>884</v>
       </c>
@@ -26302,7 +26306,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>884</v>
       </c>
@@ -26334,7 +26338,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>884</v>
       </c>
@@ -26366,7 +26370,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>893</v>
       </c>
@@ -26398,7 +26402,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>896</v>
       </c>
@@ -26430,7 +26434,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>896</v>
       </c>
@@ -26462,7 +26466,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>896</v>
       </c>
@@ -26494,7 +26498,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>896</v>
       </c>
@@ -26526,7 +26530,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>896</v>
       </c>
@@ -26558,7 +26562,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>896</v>
       </c>
@@ -26590,7 +26594,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>896</v>
       </c>
@@ -26622,7 +26626,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>896</v>
       </c>
@@ -26654,7 +26658,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>897</v>
       </c>
@@ -26686,7 +26690,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>900</v>
       </c>
@@ -26718,7 +26722,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>902</v>
       </c>
@@ -26747,7 +26751,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>902</v>
       </c>
@@ -26776,7 +26780,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>902</v>
       </c>
@@ -26805,7 +26809,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>902</v>
       </c>
@@ -26834,7 +26838,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>902</v>
       </c>
@@ -26863,7 +26867,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>902</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>902</v>
       </c>
@@ -26921,7 +26925,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>902</v>
       </c>
@@ -26950,7 +26954,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>902</v>
       </c>
@@ -26982,7 +26986,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>902</v>
       </c>
@@ -27014,7 +27018,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>902</v>
       </c>
@@ -27046,7 +27050,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>902</v>
       </c>
@@ -27078,7 +27082,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>902</v>
       </c>
@@ -27110,7 +27114,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>902</v>
       </c>
@@ -27142,7 +27146,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>902</v>
       </c>
@@ -27174,7 +27178,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>902</v>
       </c>
@@ -27206,7 +27210,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>902</v>
       </c>
@@ -27238,7 +27242,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>902</v>
       </c>
@@ -27270,7 +27274,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>902</v>
       </c>
@@ -27302,7 +27306,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>902</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>902</v>
       </c>
@@ -27366,7 +27370,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>918</v>
       </c>
@@ -27398,7 +27402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>918</v>
       </c>
@@ -27430,7 +27434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>918</v>
       </c>
@@ -27462,7 +27466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>918</v>
       </c>
@@ -27494,7 +27498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>918</v>
       </c>
@@ -27526,7 +27530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>919</v>
       </c>
@@ -27558,7 +27562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>919</v>
       </c>
@@ -27590,7 +27594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>919</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>919</v>
       </c>
@@ -27654,7 +27658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>919</v>
       </c>
@@ -27686,7 +27690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>920</v>
       </c>
@@ -27718,7 +27722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>920</v>
       </c>
@@ -27750,7 +27754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>920</v>
       </c>
@@ -27782,7 +27786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>920</v>
       </c>
@@ -27814,7 +27818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>920</v>
       </c>
@@ -27846,7 +27850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>921</v>
       </c>
@@ -27875,7 +27879,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>921</v>
       </c>
@@ -27904,7 +27908,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>921</v>
       </c>
@@ -27933,7 +27937,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>921</v>
       </c>
@@ -27962,7 +27966,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>921</v>
       </c>
@@ -27991,7 +27995,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>921</v>
       </c>
@@ -28020,7 +28024,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>921</v>
       </c>
@@ -28049,7 +28053,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>921</v>
       </c>
@@ -28081,7 +28085,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>924</v>
       </c>
@@ -28113,7 +28117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>927</v>
       </c>
@@ -28145,7 +28149,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>927</v>
       </c>
@@ -28177,7 +28181,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>927</v>
       </c>
@@ -28209,7 +28213,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>927</v>
       </c>
@@ -28241,7 +28245,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>927</v>
       </c>
@@ -28273,7 +28277,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>927</v>
       </c>
@@ -28305,7 +28309,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>927</v>
       </c>
@@ -28337,7 +28341,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>927</v>
       </c>
@@ -28369,7 +28373,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>928</v>
       </c>
@@ -28401,7 +28405,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>928</v>
       </c>
@@ -28433,7 +28437,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>928</v>
       </c>
@@ -28465,7 +28469,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>928</v>
       </c>
@@ -28497,7 +28501,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>935</v>
       </c>
@@ -28529,7 +28533,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>938</v>
       </c>
@@ -28561,7 +28565,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>938</v>
       </c>
@@ -28593,7 +28597,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>938</v>
       </c>
@@ -28625,7 +28629,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>938</v>
       </c>
@@ -28657,7 +28661,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>938</v>
       </c>
@@ -28689,7 +28693,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>938</v>
       </c>
@@ -28721,7 +28725,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>938</v>
       </c>
@@ -28753,7 +28757,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>938</v>
       </c>
@@ -28785,7 +28789,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>938</v>
       </c>
@@ -28817,7 +28821,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>938</v>
       </c>
@@ -28849,7 +28853,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>938</v>
       </c>
@@ -28881,7 +28885,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>944</v>
       </c>
@@ -28913,7 +28917,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>947</v>
       </c>
@@ -28945,7 +28949,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>947</v>
       </c>
@@ -28977,7 +28981,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>951</v>
       </c>
@@ -29009,7 +29013,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>951</v>
       </c>
@@ -29041,7 +29045,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>955</v>
       </c>
@@ -29073,7 +29077,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>955</v>
       </c>
@@ -29105,7 +29109,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>955</v>
       </c>
@@ -29137,7 +29141,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>955</v>
       </c>
@@ -29169,7 +29173,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>955</v>
       </c>
@@ -29201,7 +29205,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>955</v>
       </c>
@@ -29233,7 +29237,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>955</v>
       </c>
@@ -29265,7 +29269,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>955</v>
       </c>
@@ -29297,7 +29301,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>955</v>
       </c>
@@ -29329,7 +29333,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>955</v>
       </c>
@@ -29361,7 +29365,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>955</v>
       </c>
@@ -29393,7 +29397,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>955</v>
       </c>
@@ -29425,7 +29429,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>965</v>
       </c>
@@ -29457,7 +29461,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>965</v>
       </c>
@@ -29489,7 +29493,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>965</v>
       </c>
@@ -29521,7 +29525,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>965</v>
       </c>
@@ -29553,7 +29557,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>965</v>
       </c>
@@ -29585,7 +29589,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>965</v>
       </c>
@@ -29617,7 +29621,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>965</v>
       </c>
@@ -29649,7 +29653,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>965</v>
       </c>
@@ -29681,7 +29685,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>965</v>
       </c>
@@ -29713,7 +29717,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>965</v>
       </c>
@@ -29745,7 +29749,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>965</v>
       </c>
@@ -29777,7 +29781,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>965</v>
       </c>
@@ -29809,7 +29813,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>965</v>
       </c>
@@ -29841,7 +29845,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>965</v>
       </c>
@@ -29873,7 +29877,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>965</v>
       </c>
@@ -29905,7 +29909,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>965</v>
       </c>
@@ -29937,7 +29941,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>965</v>
       </c>
@@ -29969,7 +29973,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>985</v>
       </c>
@@ -30001,7 +30005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>986</v>
       </c>
@@ -30033,7 +30037,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>986</v>
       </c>
@@ -30065,7 +30069,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>990</v>
       </c>
@@ -30097,7 +30101,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>990</v>
       </c>
@@ -30129,7 +30133,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>990</v>
       </c>
@@ -30161,7 +30165,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>990</v>
       </c>
@@ -30193,7 +30197,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>997</v>
       </c>
@@ -30225,7 +30229,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>997</v>
       </c>
@@ -30257,7 +30261,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>997</v>
       </c>
@@ -30289,7 +30293,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>997</v>
       </c>
@@ -30321,7 +30325,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>997</v>
       </c>
@@ -30353,7 +30357,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>997</v>
       </c>
@@ -30385,7 +30389,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>997</v>
       </c>
@@ -30417,7 +30421,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>997</v>
       </c>
@@ -30449,7 +30453,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>1006</v>
       </c>
@@ -30481,7 +30485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>1006</v>
       </c>
@@ -30513,7 +30517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>1006</v>
       </c>
@@ -30545,7 +30549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>1006</v>
       </c>
@@ -30577,7 +30581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>1006</v>
       </c>
@@ -30609,7 +30613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>1007</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>1007</v>
       </c>
@@ -30673,7 +30677,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>1010</v>
       </c>
@@ -30705,7 +30709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>1011</v>
       </c>
@@ -30737,7 +30741,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>1011</v>
       </c>
@@ -30769,7 +30773,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>1011</v>
       </c>
@@ -30801,7 +30805,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>1011</v>
       </c>
@@ -30833,7 +30837,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>1011</v>
       </c>
@@ -30865,7 +30869,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>1011</v>
       </c>
@@ -30897,7 +30901,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>1011</v>
       </c>
@@ -30929,7 +30933,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>1011</v>
       </c>
@@ -30961,7 +30965,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>1011</v>
       </c>
@@ -30993,7 +30997,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>1011</v>
       </c>
@@ -31025,7 +31029,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>1011</v>
       </c>
@@ -31057,7 +31061,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>1011</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>1011</v>
       </c>
@@ -31121,7 +31125,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>1011</v>
       </c>
@@ -31153,7 +31157,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>1011</v>
       </c>
@@ -31185,7 +31189,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>1027</v>
       </c>
@@ -31217,7 +31221,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>1027</v>
       </c>
@@ -31243,7 +31247,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>1027</v>
       </c>
@@ -31269,7 +31273,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>1027</v>
       </c>
@@ -31295,7 +31299,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>1031</v>
       </c>
@@ -31327,7 +31331,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>1031</v>
       </c>
@@ -31359,7 +31363,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>1031</v>
       </c>
@@ -31391,7 +31395,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>1031</v>
       </c>
@@ -31423,7 +31427,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>1031</v>
       </c>
@@ -31455,7 +31459,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>1040</v>
       </c>
@@ -31487,7 +31491,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>1040</v>
       </c>
@@ -31519,7 +31523,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>1040</v>
       </c>
@@ -31551,7 +31555,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>1040</v>
       </c>
@@ -31583,7 +31587,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>1040</v>
       </c>
@@ -31615,7 +31619,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>1040</v>
       </c>
@@ -31647,7 +31651,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>1040</v>
       </c>
@@ -31679,7 +31683,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>1049</v>
       </c>
@@ -31711,7 +31715,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>1052</v>
       </c>
@@ -31743,7 +31747,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>1052</v>
       </c>
@@ -31775,7 +31779,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>1052</v>
       </c>
@@ -31807,7 +31811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>1056</v>
       </c>
@@ -31839,7 +31843,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>1056</v>
       </c>
@@ -31871,7 +31875,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>1056</v>
       </c>
@@ -31903,7 +31907,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>1056</v>
       </c>
@@ -31935,7 +31939,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>1056</v>
       </c>
@@ -31967,7 +31971,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>1056</v>
       </c>
@@ -31999,7 +32003,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>1056</v>
       </c>
@@ -32031,7 +32035,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>1056</v>
       </c>
@@ -32063,7 +32067,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>1056</v>
       </c>
@@ -32095,7 +32099,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>1056</v>
       </c>
@@ -32127,7 +32131,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>1056</v>
       </c>
@@ -32159,7 +32163,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>1056</v>
       </c>
@@ -32191,7 +32195,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>1056</v>
       </c>
@@ -32223,7 +32227,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>1056</v>
       </c>
@@ -32255,7 +32259,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>1056</v>
       </c>
@@ -32287,7 +32291,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>1056</v>
       </c>
@@ -32319,7 +32323,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>1056</v>
       </c>
@@ -32351,7 +32355,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>1056</v>
       </c>
@@ -32383,7 +32387,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>1056</v>
       </c>
@@ -32415,7 +32419,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>1073</v>
       </c>
@@ -32447,7 +32451,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>1076</v>
       </c>
@@ -32479,7 +32483,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>1076</v>
       </c>
@@ -32511,7 +32515,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>1076</v>
       </c>
@@ -32543,7 +32547,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>1076</v>
       </c>
@@ -32575,7 +32579,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>1076</v>
       </c>
@@ -32607,7 +32611,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>1076</v>
       </c>
@@ -32639,7 +32643,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>1076</v>
       </c>
@@ -32671,7 +32675,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>1076</v>
       </c>
@@ -32703,7 +32707,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>1077</v>
       </c>
@@ -32735,7 +32739,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>1077</v>
       </c>
@@ -32767,7 +32771,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>1077</v>
       </c>
@@ -32799,7 +32803,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>1077</v>
       </c>
@@ -32831,7 +32835,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>1083</v>
       </c>
@@ -32863,7 +32867,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>1083</v>
       </c>
@@ -32895,7 +32899,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>1083</v>
       </c>
@@ -32927,7 +32931,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>1083</v>
       </c>
@@ -32959,7 +32963,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>1083</v>
       </c>
@@ -32991,7 +32995,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>1083</v>
       </c>
@@ -33023,7 +33027,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>1083</v>
       </c>
@@ -33055,7 +33059,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>1083</v>
       </c>
@@ -33087,7 +33091,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>1083</v>
       </c>
@@ -33119,7 +33123,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>1083</v>
       </c>
@@ -33151,7 +33155,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>1083</v>
       </c>
@@ -33183,7 +33187,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>1083</v>
       </c>
@@ -33215,7 +33219,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>1083</v>
       </c>
@@ -33247,7 +33251,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>1083</v>
       </c>
@@ -33279,7 +33283,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>1083</v>
       </c>
@@ -33311,7 +33315,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>1083</v>
       </c>
@@ -33343,7 +33347,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>1083</v>
       </c>
@@ -33375,7 +33379,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>1083</v>
       </c>
@@ -33407,7 +33411,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>1083</v>
       </c>
@@ -33439,7 +33443,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>1083</v>
       </c>
@@ -33471,7 +33475,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>1107</v>
       </c>
@@ -33503,7 +33507,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>1107</v>
       </c>
@@ -33535,7 +33539,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>1107</v>
       </c>
@@ -33567,7 +33571,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>1113</v>
       </c>
@@ -33599,7 +33603,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>1113</v>
       </c>
@@ -33631,7 +33635,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>1113</v>
       </c>
@@ -33663,7 +33667,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>1113</v>
       </c>
@@ -33695,7 +33699,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>1113</v>
       </c>
@@ -33727,7 +33731,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>1113</v>
       </c>
@@ -33759,7 +33763,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>1113</v>
       </c>
@@ -33791,7 +33795,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>1113</v>
       </c>
@@ -33823,7 +33827,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>1113</v>
       </c>
@@ -33855,7 +33859,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>1113</v>
       </c>
@@ -33887,7 +33891,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>1113</v>
       </c>
@@ -33919,7 +33923,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>1113</v>
       </c>
@@ -33951,7 +33955,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>1113</v>
       </c>
@@ -33983,7 +33987,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>1113</v>
       </c>
@@ -34015,7 +34019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>1117</v>
       </c>
@@ -34047,7 +34051,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>1117</v>
       </c>
@@ -34079,7 +34083,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>1117</v>
       </c>
@@ -34111,7 +34115,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>1117</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>1117</v>
       </c>
@@ -34175,7 +34179,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>1117</v>
       </c>
@@ -34207,7 +34211,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>1117</v>
       </c>
@@ -34239,7 +34243,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>1117</v>
       </c>
@@ -34271,7 +34275,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>1117</v>
       </c>
@@ -34303,7 +34307,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>1117</v>
       </c>
@@ -34335,7 +34339,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>1117</v>
       </c>
@@ -34367,7 +34371,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>1117</v>
       </c>
@@ -34399,7 +34403,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>1117</v>
       </c>
@@ -34431,7 +34435,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>1117</v>
       </c>
@@ -34463,7 +34467,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>1117</v>
       </c>
@@ -34495,7 +34499,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>1136</v>
       </c>
@@ -34527,7 +34531,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>1136</v>
       </c>
@@ -34559,7 +34563,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>1136</v>
       </c>
@@ -34591,7 +34595,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>1136</v>
       </c>
@@ -34623,7 +34627,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>1136</v>
       </c>
@@ -34655,7 +34659,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>1136</v>
       </c>
@@ -34687,7 +34691,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>1136</v>
       </c>
@@ -34719,7 +34723,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>1147</v>
       </c>
@@ -34751,7 +34755,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>1147</v>
       </c>
@@ -34783,7 +34787,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>1147</v>
       </c>
@@ -34815,7 +34819,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>1147</v>
       </c>
@@ -34847,7 +34851,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>1147</v>
       </c>
@@ -34879,7 +34883,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>1154</v>
       </c>
@@ -34911,7 +34915,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>1154</v>
       </c>
@@ -34943,7 +34947,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>1154</v>
       </c>
@@ -34975,7 +34979,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>1154</v>
       </c>
@@ -35007,7 +35011,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>1154</v>
       </c>
@@ -35039,7 +35043,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>1154</v>
       </c>
@@ -35071,7 +35075,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>1154</v>
       </c>
@@ -35103,7 +35107,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>1154</v>
       </c>
@@ -35135,7 +35139,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>1154</v>
       </c>
@@ -35167,7 +35171,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>1154</v>
       </c>
@@ -35199,7 +35203,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>1154</v>
       </c>
@@ -35231,7 +35235,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>1163</v>
       </c>
@@ -35263,7 +35267,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>1163</v>
       </c>
@@ -35295,7 +35299,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>1163</v>
       </c>
@@ -35327,7 +35331,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>1163</v>
       </c>
@@ -35359,7 +35363,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>1163</v>
       </c>
@@ -35391,7 +35395,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>1163</v>
       </c>
@@ -35423,7 +35427,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>1163</v>
       </c>
@@ -35455,7 +35459,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>1163</v>
       </c>
@@ -35487,7 +35491,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>1163</v>
       </c>
@@ -35519,7 +35523,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>1163</v>
       </c>
@@ -35551,7 +35555,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>1163</v>
       </c>
@@ -35583,7 +35587,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>1163</v>
       </c>
@@ -35615,7 +35619,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>1163</v>
       </c>
@@ -35647,7 +35651,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>1163</v>
       </c>
@@ -35679,7 +35683,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>1163</v>
       </c>
@@ -35711,7 +35715,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>1163</v>
       </c>
@@ -35743,7 +35747,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>1163</v>
       </c>
@@ -35775,7 +35779,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>1163</v>
       </c>
@@ -35807,7 +35811,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>1163</v>
       </c>
@@ -35839,7 +35843,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>1163</v>
       </c>
@@ -35871,7 +35875,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>1163</v>
       </c>
@@ -35904,6 +35908,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J986" xr:uid="{CB0633E8-6193-C347-BB4A-769926B7E16B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Burundi"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Iron"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>